--- a/doc/开源社区变量2.2.xlsx
+++ b/doc/开源社区变量2.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16420"/>
+    <workbookView windowHeight="16420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="色盘" sheetId="2" r:id="rId1"/>
@@ -916,7 +916,7 @@
     <t>shadow-3</t>
   </si>
   <si>
-    <t>0 10px 32px rgba(45, 47, 51, 0.18);</t>
+    <t>0 10px 32px rgba(45, 47, 51, 0.18)</t>
   </si>
   <si>
     <t>--o-shadow-3</t>
@@ -1038,10 +1038,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1134,13 +1134,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1154,35 +1147,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1194,9 +1185,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1205,13 +1196,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1226,7 +1210,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1241,7 +1225,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1249,21 +1264,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1692,7 +1692,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1704,13 +1800,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1722,157 +1872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2084,41 +2084,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2163,148 +2133,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="99" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="99" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="96" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="93" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="83" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="74" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="83" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="97" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="85" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="96" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="97" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="93" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="82" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="100" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="83" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="82" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="74" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="100" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3871,8 +3871,8 @@
   <sheetPr/>
   <dimension ref="A1:J186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="A1:J13 G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="32" customHeight="1"/>
@@ -9754,8 +9754,8 @@
   <sheetPr/>
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="32" customHeight="1"/>
